--- a/vtigerdata.xlsx
+++ b/vtigerdata.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3DDCC632-A165-4113-BBC7-96D1178BA745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ABA55E-39D1-418B-9161-3E32DCAEE383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="10200" windowHeight="11700" activeTab="2" xr2:uid="{D3592FED-9A39-4A01-B7A3-E87B8BD6B9B2}"/>
+    <workbookView xWindow="1380" yWindow="405" windowWidth="15375" windowHeight="7875" xr2:uid="{D3592FED-9A39-4A01-B7A3-E87B8BD6B9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Organization Name</t>
   </si>
@@ -263,13 +267,28 @@
   </si>
   <si>
     <t>Last Name</t>
+  </si>
+  <si>
+    <t>Aaron511</t>
+  </si>
+  <si>
+    <t>Kiera805</t>
+  </si>
+  <si>
+    <t>Eloise112</t>
+  </si>
+  <si>
+    <t>Lenny5</t>
+  </si>
+  <si>
+    <t>Merle399</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +301,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -304,8 +329,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB223F9-E436-481A-99E9-6DDEFB602616}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,9 +753,35 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -968,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7436651-E3B3-4EED-B837-559AF60D0F76}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
